--- a/데이터/선정 도시 데이터/Gyeongsan.xlsx
+++ b/데이터/선정 도시 데이터/Gyeongsan.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Gyeongsan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,11 +51,18 @@
     <t>Obesity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -103,6 +110,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -118,6 +129,986 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Gyeongsan</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.4621807530727278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.68858599426116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.593846580128144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.39101224770302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200.74646131934617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>219.83075239083436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>297.5844659899887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$13:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1000000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="641377840"/>
+        <c:axId val="641379408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="641377840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641379408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="641379408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641377840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,18 +1398,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2008</v>
       </c>
@@ -476,7 +1473,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2009</v>
       </c>
@@ -505,7 +1502,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2010</v>
       </c>
@@ -534,7 +1531,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2011</v>
       </c>
@@ -563,7 +1560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2012</v>
       </c>
@@ -592,7 +1589,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2013</v>
       </c>
@@ -621,7 +1618,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -650,7 +1647,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2015</v>
       </c>
@@ -677,11 +1674,383 @@
       </c>
       <c r="I9" s="3">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.63</v>
+      </c>
+      <c r="E12" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>14803</v>
+      </c>
+      <c r="G12" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="4">
+        <f>(B3-B2)*100/B2</f>
+        <v>7.1005917159763383</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:H13" si="0">(C3-C2)*100/C2</f>
+        <v>-6.7796610169491585</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5032397408207441</v>
+      </c>
+      <c r="E13" s="4">
+        <f>(E3-E2)</f>
+        <v>1.6000000000000085</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3713436465581301</v>
+      </c>
+      <c r="G13" s="4">
+        <f>(G3-G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.3333333333333335</v>
+      </c>
+      <c r="I13" s="5">
+        <f>B13+C13+D13+E13+F13+G13+H13</f>
+        <v>9.4621807530727278</v>
+      </c>
+      <c r="J13" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="K13" s="3">
+        <f>J13-J12</f>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="4">
+        <f>(B4-B2)*100/B2</f>
+        <v>-1.1834319526627231</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:H14" si="1">(C4-C2)*100/C2</f>
+        <v>83.050847457627128</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>7.7753779697624257</v>
+      </c>
+      <c r="E14" s="4">
+        <f>(E4-E2)</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9791258528676621</v>
+      </c>
+      <c r="G14" s="4">
+        <f>(G4-G2)</f>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.3333333333333335</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ref="I14:I19" si="2">B14+C14+D14+E14+F14+G14+H14</f>
+        <v>92.68858599426116</v>
+      </c>
+      <c r="J14" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="K14" s="3">
+        <f>J14-J12</f>
+        <v>5.9000000000000021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="4">
+        <f>(B5-B2)*100/B2</f>
+        <v>8.28402366863906</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:H15" si="3">(C5-C2)*100/C2</f>
+        <v>80.847457627118629</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.5917926565874754</v>
+      </c>
+      <c r="E15" s="4">
+        <f>(E5-E2)</f>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>6.1541579409579139</v>
+      </c>
+      <c r="G15" s="4">
+        <f>(G5-G2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>96.593846580128144</v>
+      </c>
+      <c r="J15" s="3">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3">
+        <f>J15-J12</f>
+        <v>6.1000000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="4">
+        <f>(B6-B2)*100/B2</f>
+        <v>8.8757396449704231</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:H16" si="4">(C6-C2)*100/C2</f>
+        <v>106.44067796610167</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4557235421166337</v>
+      </c>
+      <c r="E16" s="4">
+        <f>(E6-E2)</f>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>10.430318178747552</v>
+      </c>
+      <c r="G16" s="4">
+        <f>(G6-G2)</f>
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>127.39101224770302</v>
+      </c>
+      <c r="J16" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K16" s="3">
+        <f>J16-J12</f>
+        <v>7.2000000000000028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="4">
+        <f>(B7-B2)*100/B2</f>
+        <v>8.8757396449704231</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:H17" si="5">(C7-C2)*100/C2</f>
+        <v>165.59322033898303</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="5"/>
+        <v>4.1036717062635075</v>
+      </c>
+      <c r="E17" s="4">
+        <f>(E7-E2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="5"/>
+        <v>15.77382962912923</v>
+      </c>
+      <c r="G17" s="4">
+        <f>(G7-G2)</f>
+        <v>2.8999999999999915</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>200.74646131934617</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="K17" s="3">
+        <f>J17-J12</f>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="4">
+        <f>(B8-B2)*100/B2</f>
+        <v>12.426035502958579</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:H18" si="6">(C8-C2)*100/C2</f>
+        <v>166.94915254237287</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="6"/>
+        <v>10.583153347732186</v>
+      </c>
+      <c r="E18" s="4">
+        <f>(E8-E2)</f>
+        <v>3.6000000000000085</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="6"/>
+        <v>22.772410997770724</v>
+      </c>
+      <c r="G18" s="4">
+        <f>(G8-G2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>219.83075239083436</v>
+      </c>
+      <c r="J18" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="K18" s="3">
+        <f>J18-J12</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="4">
+        <f>(B9-B2)*100/B2</f>
+        <v>17.159763313609471</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:H19" si="7">(C9-C2)*100/C2</f>
+        <v>223.22033898305082</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="7"/>
+        <v>17.710583153347738</v>
+      </c>
+      <c r="E19" s="4">
+        <f>(E9-E2)</f>
+        <v>3.6000000000000085</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>28.460447206647302</v>
+      </c>
+      <c r="G19" s="4">
+        <f>(G9-G2)</f>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>297.5844659899887</v>
+      </c>
+      <c r="J19" s="3">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <f>J19-J12</f>
+        <v>7.1000000000000014</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>